--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1022962.361127564</v>
+        <v>-1025601.708445586</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.92758027620748</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>176.7738246218242</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>67.51363812600081</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>64.57009008111693</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>61.98873932121355</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.782072264243024</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>228.6292165671983</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>256.8008778251492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>121.4922708414239</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>242.6596397053881</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>124.2292170629837</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>21.5750115372822</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>175.3253504652189</v>
       </c>
       <c r="X13" t="n">
-        <v>116.2873251119337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>40.32853379926716</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>159.6155901915576</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>82.25298866282577</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U22" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.55695577161242</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652579</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.249159503017</v>
+        <v>1698.271625592389</v>
       </c>
       <c r="C2" t="n">
-        <v>1206.286642562605</v>
+        <v>1329.309108651978</v>
       </c>
       <c r="D2" t="n">
-        <v>848.0209439558548</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2326913576106</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2259.080702116702</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2259.080702116702</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1928.017814773131</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1575.249159503017</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X2" t="n">
-        <v>1575.249159503017</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y2" t="n">
-        <v>1575.249159503017</v>
+        <v>2084.871465656511</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>586.4082965573064</v>
+        <v>1866.686420315118</v>
       </c>
       <c r="C4" t="n">
-        <v>417.4721136293995</v>
+        <v>1697.750237387211</v>
       </c>
       <c r="D4" t="n">
-        <v>267.3554742170637</v>
+        <v>1547.633597974876</v>
       </c>
       <c r="E4" t="n">
-        <v>119.4423806346706</v>
+        <v>1399.720504392482</v>
       </c>
       <c r="F4" t="n">
-        <v>119.4423806346706</v>
+        <v>1399.720504392482</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.838891429094</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W4" t="n">
-        <v>1216.838891429094</v>
+        <v>2497.117015186906</v>
       </c>
       <c r="X4" t="n">
-        <v>988.8493405310762</v>
+        <v>2269.127464288888</v>
       </c>
       <c r="Y4" t="n">
-        <v>768.0567613875461</v>
+        <v>2048.334885145358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.8611267254473</v>
+        <v>1588.713578732509</v>
       </c>
       <c r="C5" t="n">
-        <v>864.8611267254473</v>
+        <v>1219.751061792097</v>
       </c>
       <c r="D5" t="n">
-        <v>506.5954281186968</v>
+        <v>861.4853631853468</v>
       </c>
       <c r="E5" t="n">
-        <v>120.8071755204526</v>
+        <v>475.6971105871026</v>
       </c>
       <c r="F5" t="n">
-        <v>113.8616747712491</v>
+        <v>468.7516098378991</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>53.04685956218799</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664334</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320763</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050649</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.460966789569</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.460966789569</v>
+        <v>1975.313418796631</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>870.3292415458914</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1233.591260505111</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.0381161665167</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386097</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386097</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>1106.295363156811</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827656</v>
+        <v>1106.295363156811</v>
       </c>
       <c r="W7" t="n">
-        <v>507.6865809967563</v>
+        <v>816.8781931198506</v>
       </c>
       <c r="X7" t="n">
-        <v>507.6865809967563</v>
+        <v>588.8886422218333</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.6865809967563</v>
+        <v>368.0960630783031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204827</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C8" t="n">
-        <v>1312.873537264415</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D8" t="n">
-        <v>1312.873537264415</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>768.692212524878</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>973.5548741173881</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>804.6186911894812</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>654.5020517771454</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>506.5889581947523</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>359.6990106968419</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>191.9961740715609</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>1155.203338947628</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794805</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,16 +5364,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780504994</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1392.965472922287</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.975922024269</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>944.1833428807391</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>547.5889719879178</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>400.6990244900074</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,7 +7081,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7330,25 +7330,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311317</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,10 +7585,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7786,31 +7786,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,16 +7819,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.591198401904</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>280.1079373569275</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>289.7554613444755</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.88436035840951</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>204.4498546837378</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>38.31987464070689</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>111.1976478713721</v>
       </c>
       <c r="X13" t="n">
-        <v>109.4223302771052</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.1944645373239</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.09406519747952</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U22" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>39.7088805469531</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.654232434377241e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-5.044853423896711e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26344,13 +26344,13 @@
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660713</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182256</v>
+        <v>67721.68800182248</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984562</v>
+        <v>53312.72503984555</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309561</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.256391744306</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744309</v>
-      </c>
       <c r="J4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744306</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483779</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1091750.140161288</v>
+        <v>-1092110.223177006</v>
       </c>
       <c r="C6" t="n">
-        <v>-23199.46695075707</v>
+        <v>-23199.46695075696</v>
       </c>
       <c r="D6" t="n">
-        <v>-183214.9296987561</v>
+        <v>-183214.9296987557</v>
       </c>
       <c r="E6" t="n">
-        <v>-233475.5981005052</v>
+        <v>-233510.3360259408</v>
       </c>
       <c r="F6" t="n">
-        <v>91936.86370685032</v>
+        <v>91902.12578141445</v>
       </c>
       <c r="G6" t="n">
-        <v>91936.86370685023</v>
+        <v>91902.12578141451</v>
       </c>
       <c r="H6" t="n">
-        <v>91936.86370685017</v>
+        <v>91902.1257814141</v>
       </c>
       <c r="I6" t="n">
-        <v>91936.8637068501</v>
+        <v>91902.12578141461</v>
       </c>
       <c r="J6" t="n">
-        <v>-75668.31410313246</v>
+        <v>-75703.05202856804</v>
       </c>
       <c r="K6" t="n">
-        <v>91936.86370685014</v>
+        <v>91902.12578141465</v>
       </c>
       <c r="L6" t="n">
-        <v>17656.52295549546</v>
+        <v>17656.5229554956</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1830218059331</v>
+        <v>323.1830218063261</v>
       </c>
       <c r="N6" t="n">
+        <v>85378.21095731779</v>
+      </c>
+      <c r="O6" t="n">
         <v>85378.21095731776</v>
-      </c>
-      <c r="O6" t="n">
-        <v>85378.21095731782</v>
       </c>
       <c r="P6" t="n">
         <v>85378.21095731776</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>181.7880839723158</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>60.47308727809649</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>221.9529082554741</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>349.5589634517405</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>299.2364802981623</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>57.59793755400227</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>29.7221205114418</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>260.4380992308379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>164.2164060363233</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>20.52579785133709</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>197.0096418148126</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,19 +32312,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593834</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>504.1681401741873</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>303.0719207327586</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>577.7882979947777</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,7 +35732,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795092</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
